--- a/docs/Getana_Deliverable_1_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_1_ProductBacklog.xlsx
@@ -19,16 +19,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">PRODUCT BACKLOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One user story per row. This document must be updated at minimum at the beginning and end of sprints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to add my class schedule (course building, time) for the day to the
+app, so that I can receive complete and correct walking directions to each building in order from
+the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to save my schedule for the day and give it a name so that I can recall it quickly in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to save and recall multiple schedules, because I may not have the same schedule every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to easily delete saved schedules, in case my schedule changes or I have progressed to a new term with different classes, so that I am not encumbered by schedules that are no longer relevant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to automatically determine the geographical location of buildings that my classes are in based only on the name of the building as provided by the schedule in the TTU registration system, so that I can easily have my schedule generated without research or prior knowledge of where the buildings are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to intelligently determine when classes for the day are already over and provide the reduced set of directions only to classes which are not yet over, so that I am not encumbered by excess, unnecessary information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I also want the app to give me the option to toggle showing the routes to ALL classes for the day regardless of whether they are already over, so that I can show my schedule to others in person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to show me the shortest walking route between classes, so that I can arrive as quickly as possible in the event that I am running late.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to regularly update and display my current location on the navigation map, so that I can more easily follow the directions provided by the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to show me an estimated amount of time to travel from my current location to the next destination in my schedule, so that I can react with more urgency if I am in danger of being late.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to tell me how much time is available until my next class begins, so that I can more easily fit unscheduled activities into my day without calculating myself the amount of time available until class begins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to notify me with special messages when I am in danger of being late to class, based on the time the class begins and the travel time necessary to reach the building, so that I can afford to be distracted and do not have to constantly check the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the reminder feature to honor silent mode and notification settings on the mobile device, so that I am not inconvenienced by additional settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to completely disable all reminder features, regardless of phone notification settings on the mobile device, so that I am not bothered by unnecessary reminders when I am confident about my schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the app to recalculate the shortest path to the next destination in my schedule with the push of a ‘recalculate’ button, in the event that I veer from the original route and require new directions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to arbitrarily add some other locations to the app and to my schedules, so that I can plan in regular lunch destinations or walks for exercise between classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to add arbitrary locations which will only be considered on that day only, and not saved to the schedule for use on other days, so that I can benefit from the features of the app even with short-term plans without inconveniencing myself by having to remove destinations from the schedule again later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to mark a class as temporarily cancelled for the day and have directions and scheduling in the app updated accordingly, but have the regular schedule resumed the next day, so that I do not receive unnecessary notifications, reminders, or directions for classes I will not be attending that day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to edit existing/saved schedules to change the buildings and times of each class, so that I can correct for schedule changes and prior input mistakes without creating entirely new schedules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to export schedules to other common digital calendar formats, so that I can integrate some benefits from the app with other apps that I use every day.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -46,51 +138,100 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -191,26 +332,70 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -306,17 +491,329 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/Getana_Deliverable_1_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_1_ProductBacklog.xlsx
@@ -20,14 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">PRODUCT BACKLOG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">PRODUCT BACKLOG — DELIVERABLE 1</t>
   </si>
   <si>
     <t xml:space="preserve">One user story per row. This document must be updated at minimum at the beginning and end of sprints.</t>
   </si>
   <si>
+    <t xml:space="preserve">Keep sorted by priority.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -181,7 +184,19 @@
     <t xml:space="preserve">Story Priorities: H (high), M (medium), L (low)</t>
   </si>
   <si>
-    <t xml:space="preserve">Story Statuses: W (waiting), IP (in progress), T (testing), D (done)</t>
+    <t xml:space="preserve">Story Statuses:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W (waiting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP (in progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T (testing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D (done)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,13 +243,42 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,6 +332,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -297,6 +361,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -305,10 +429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,8 +440,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
@@ -332,448 +456,450 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="55.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="33.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="33.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="33.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="14" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>11</v>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>11</v>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="45.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
+    <row r="18" customFormat="false" ht="45.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>11</v>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="45.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="22" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="23" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>11</v>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="33.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="27" customFormat="false" ht="33.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="28" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="C28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3"/>
@@ -785,13 +911,28 @@
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>52</v>
-      </c>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
